--- a/data/20-12-2025-BORAL_-_HNV_PCM_1ST_FLOOR-01_connections.xlsx
+++ b/data/20-12-2025-BORAL_-_HNV_PCM_1ST_FLOOR-01_connections.xlsx
@@ -1021,7 +1021,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>46011.2580423727</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE3" s="8" t="n">
         <v>46011.2580423727</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>46011.2580423727</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE5" s="8" t="n">
         <v>46011.2580423727</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>46011.2580423727</v>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE7" s="8" t="n">
         <v>46011.2580423727</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>46011.2580423727</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE9" s="8" t="n">
         <v>46011.2580423727</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="AD11" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE11" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="AD12" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE12" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE13" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE14" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE15" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE16" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE17" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="AD18" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE18" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="AD19" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE19" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="AD20" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE20" s="4" t="n">
         <v>46011.2580423727</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="AD21" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE21" s="8" t="n">
         <v>46011.2580423727</v>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="AD22" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE22" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AD23" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE23" s="8" t="n">
         <v>46011.2580423727</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE24" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="AD25" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE25" s="8" t="n">
         <v>46011.2580423727</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="AD26" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE26" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="AD27" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE27" s="8" t="n">
         <v>46011.2580423727</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="AD28" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE28" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AD29" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE29" s="8" t="n">
         <v>46011.2580423727</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="AD30" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE30" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="AD31" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE31" s="8" t="n">
         <v>46011.2580423727</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="AD32" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE32" s="4" t="n">
         <v>46011.2580423727</v>
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="AD33" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE33" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="AD34" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE34" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="AD35" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE35" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="AD36" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE36" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="AD37" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE37" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="AD38" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE38" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4431,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="AD39" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE39" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="AD40" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE40" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="AD41" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE41" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="AD42" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE42" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="AD43" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE43" s="8" t="n">
         <v>46011.2580423727</v>
@@ -4861,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="AD44" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE44" s="4" t="n">
         <v>46011.2580423727</v>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="AD45" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE45" s="8" t="n">
         <v>46011.2580423727</v>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="AD46" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE46" s="4" t="n">
         <v>46011.2580423727</v>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="AD47" s="8" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE47" s="8" t="n">
         <v>46011.2580423727</v>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="AD48" s="4" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE48" s="4" t="n">
         <v>46011.2580423727</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="AD49" s="12" t="n">
-        <v>46011.6887084375</v>
+        <v>46011.6903669676</v>
       </c>
       <c r="AE49" s="12" t="n">
         <v>46011.2580423727</v>
